--- a/Covid data Cleaned 20.xlsx
+++ b/Covid data Cleaned 20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moses\Desktop\UM\WQD7005 DATA MINING\group project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{218B96CE-032D-43C0-A2A1-B3E4F3785849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EF2AD7-6140-4298-9478-F18D8991B60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{075CF5C7-895F-4E09-9239-57497F69D58A}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,24 +482,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -529,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
